--- a/Kosten.xlsx
+++ b/Kosten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\99_Privat\tap\TaPFX-Kabuki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0662487A-B22F-49EB-A4BD-37D6F2E7E931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE839313-DBCB-44B5-9F9E-7560CF037C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27550" yWindow="2990" windowWidth="28800" windowHeight="15460" xr2:uid="{E4FFB614-7C1F-4C31-912D-81D6E934DEA7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{E4FFB614-7C1F-4C31-912D-81D6E934DEA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Kbuki</t>
   </si>
@@ -154,6 +154,39 @@
   </si>
   <si>
     <t>Stückkosten</t>
+  </si>
+  <si>
+    <t>PCBs</t>
+  </si>
+  <si>
+    <t>Magnete</t>
+  </si>
+  <si>
+    <t>elektro</t>
+  </si>
+  <si>
+    <t>Schrauben</t>
+  </si>
+  <si>
+    <t>inserts</t>
+  </si>
+  <si>
+    <t>summe</t>
+  </si>
+  <si>
+    <t>drucker</t>
+  </si>
+  <si>
+    <t>philament</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>Kabel</t>
+  </si>
+  <si>
+    <t>Module</t>
   </si>
 </sst>
 </file>
@@ -531,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D78B45A-BF86-48C5-A0A7-81F746C09D48}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,12 +575,12 @@
     <col min="1" max="1" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -559,8 +592,14 @@
         <f>51/30</f>
         <v>1.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -572,8 +611,14 @@
         <f>20.7/30</f>
         <v>0.69</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -585,40 +630,79 @@
         <f>11.4/30</f>
         <v>0.38</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <f>305/40</f>
+        <v>7.625</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -626,24 +710,48 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F2:F9)</f>
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <f>F11/F12</f>
+        <v>70.733333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <f>SUM(B2:B11)</f>
-        <v>21.926299999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26.901299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -657,7 +765,7 @@
       </c>
       <c r="B18">
         <f>B14*B16</f>
-        <v>657.78899999999999</v>
+        <v>807.03899999999999</v>
       </c>
     </row>
   </sheetData>
